--- a/test.xlsx
+++ b/test.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onevmw-my.sharepoint.com/personal/dnigam_vmware_com/Documents/VMwareCorp/Documents/UiPath/UiPathExcelAdvanceOperation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnigam\Documents\UiPath\UiPathExcelAdvanceOperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E87D0ABF-50F8-4D18-8528-785EC29B9C6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18B267C8-DF2A-4463-A373-0670614DE192}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CE4C1C-6858-4AB7-894D-D4F1EF26D647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="2535" windowWidth="20865" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1Copy" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1Copy" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="34">
   <si>
     <t>Sno</t>
   </si>
@@ -96,6 +97,39 @@
   </si>
   <si>
     <t>Chennai</t>
+  </si>
+  <si>
+    <t>Merc</t>
+  </si>
+  <si>
+    <t>Product Class</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>ProductClass</t>
+  </si>
+  <si>
+    <t>Deva1</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>Bhopal</t>
   </si>
 </sst>
 </file>
@@ -111,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,10 +192,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,6 +478,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66B11F1-2E10-4B8E-A39C-1C3B6D621391}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>102</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>103</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>104</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EE64E0-9079-4245-AD38-CAC5EE9720B2}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>106</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A955813-5EF5-45BC-BA84-D104E0D84267}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -569,275 +1031,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EE64E0-9079-4245-AD38-CAC5EE9720B2}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>104</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D509FA-6480-48C8-86AF-24FB019734AE}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>104</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnigam\Documents\UiPath\UiPathExcelAdvanceOperation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91836\Documents\UiPath\UiPathExcelOperations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CE4C1C-6858-4AB7-894D-D4F1EF26D647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4ED2FC-E015-44F5-8B83-84307433CA94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1Copy" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet_InsDelcolmnsRows" sheetId="7" r:id="rId1"/>
+    <sheet name="Pivot" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1Copy" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="26" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="38">
   <si>
     <t>Sno</t>
   </si>
@@ -130,13 +135,25 @@
   </si>
   <si>
     <t>Bhopal</t>
+  </si>
+  <si>
+    <t>Sum of Sno</t>
+  </si>
+  <si>
+    <t>Sum of ProductID</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +161,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +189,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -188,21 +219,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -213,6 +497,250 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="91836" refreshedDate="44207.554905787038" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{A725C91D-3687-444C-BE04-3BA2D9159B52}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Sno" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="ProductID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="105"/>
+    </cacheField>
+    <cacheField name="ProductName" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Amaze"/>
+        <s v="Sony TV"/>
+        <s v="Iphone"/>
+        <s v="Oneplus"/>
+        <s v="Alexa"/>
+        <s v="Merc"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CustomerName" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Deva"/>
+        <s v="Mohan"/>
+        <s v="Rohan"/>
+        <s v="Sohan"/>
+        <s v="Praful"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CustomerCity" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Delhi"/>
+        <s v="Noida"/>
+        <s v="Pune"/>
+        <s v="Chennai"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+  <r>
+    <n v="1"/>
+    <n v="100"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="101"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="102"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="103"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="104"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="105"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC8CBEC9-706F-44DF-8128-00899E3DF5A7}" name="PivotData" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M2:O21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="2"/>
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sno" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ProductID" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBB9404B-8F95-429C-A4E0-E17296BAADDD}" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:E7" xr:uid="{095C6292-CE6A-4215-9C07-350BB9D41A15}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Deva"/>
+        <filter val="Sohan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{38C34E64-F603-4287-82EA-8ABED9D77C79}" name="Sno" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EE85A923-6282-4F91-A804-2425FAB190AE}" name="ProductID" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C579E0CB-4DF5-4339-A17F-4144C13643ED}" name="ProductName" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9AD87A4D-C347-44AC-9F02-5689FE31F45E}" name="CustomerName" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{27E1AF25-451F-4018-90A0-7868D984E31D}" name="CustomerCity" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,16 +1005,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A97BA93-199C-48AB-B438-0EF72E91AA9B}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -494,122 +1023,100 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>101</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>102</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>103</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>104</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A6" s="4">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,6 +1124,515 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB432D5-DCE2-4905-B349-B9E195959FE2}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>101</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11">
+        <v>5</v>
+      </c>
+      <c r="O3" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>102</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="11">
+        <v>5</v>
+      </c>
+      <c r="O4" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>103</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="11">
+        <v>5</v>
+      </c>
+      <c r="O5" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>104</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>105</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1</v>
+      </c>
+      <c r="O7" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1</v>
+      </c>
+      <c r="O8" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="11">
+        <v>3</v>
+      </c>
+      <c r="O9" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="11">
+        <v>3</v>
+      </c>
+      <c r="O10" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="11">
+        <v>3</v>
+      </c>
+      <c r="O11" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="11">
+        <v>6</v>
+      </c>
+      <c r="O12" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="11">
+        <v>6</v>
+      </c>
+      <c r="O13" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="11">
+        <v>6</v>
+      </c>
+      <c r="O14" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="11">
+        <v>4</v>
+      </c>
+      <c r="O15" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="11">
+        <v>4</v>
+      </c>
+      <c r="O16" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="11">
+        <v>4</v>
+      </c>
+      <c r="O17" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="11">
+        <v>2</v>
+      </c>
+      <c r="O18" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="11">
+        <v>2</v>
+      </c>
+      <c r="O19" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="11">
+        <v>2</v>
+      </c>
+      <c r="O20" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="11">
+        <v>21</v>
+      </c>
+      <c r="O21" s="11">
+        <v>615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>106</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66B11F1-2E10-4B8E-A39C-1C3B6D621391}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -719,12 +1735,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EE64E0-9079-4245-AD38-CAC5EE9720B2}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +1912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A955813-5EF5-45BC-BA84-D104E0D84267}">
   <dimension ref="A1:E7"/>
   <sheetViews>
